--- a/帮助文档/版本记录.xlsx
+++ b/帮助文档/版本记录.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="release1.0.2" sheetId="2" r:id="rId1"/>
-    <sheet name="release1.0.1" sheetId="1" r:id="rId2"/>
+    <sheet name="release1.0.3" sheetId="3" r:id="rId1"/>
+    <sheet name="release1.0.2" sheetId="2" r:id="rId2"/>
+    <sheet name="release1.0.1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>图形设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +468,34 @@
 3、登录及修改密码时，前后端数据交互增加AES加密，降低密码明文泄漏的风险。
 4、开放接口能力，提供通用数据字典接口。
 5、升级系统简介及帮助文档。
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2022年07月21日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1、细化跨域控制，网关代理新增独立的跨域配置，更自由，更安全。
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -951,9 +980,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1223,7 +1424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>

--- a/帮助文档/版本记录.xlsx
+++ b/帮助文档/版本记录.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="release1.0.3" sheetId="3" r:id="rId1"/>
-    <sheet name="release1.0.2" sheetId="2" r:id="rId2"/>
-    <sheet name="release1.0.1" sheetId="1" r:id="rId3"/>
+    <sheet name="release1.0.4" sheetId="4" r:id="rId1"/>
+    <sheet name="release1.0.3" sheetId="3" r:id="rId2"/>
+    <sheet name="release1.0.2" sheetId="2" r:id="rId3"/>
+    <sheet name="release1.0.1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>图形设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +497,34 @@
       </rPr>
       <t xml:space="preserve">
 1、细化跨域控制，网关代理新增独立的跨域配置，更自由，更安全。
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2022年09月23日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1、增加xss防护。
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -983,14 +1012,14 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1151,6 +1180,178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -1424,7 +1625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>

--- a/帮助文档/版本记录.xlsx
+++ b/帮助文档/版本记录.xlsx
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/帮助文档/版本记录.xlsx
+++ b/帮助文档/版本记录.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="release1.0.4" sheetId="4" r:id="rId1"/>
-    <sheet name="release1.0.3" sheetId="3" r:id="rId2"/>
-    <sheet name="release1.0.2" sheetId="2" r:id="rId3"/>
-    <sheet name="release1.0.1" sheetId="1" r:id="rId4"/>
+    <sheet name="release2.0.1" sheetId="5" r:id="rId1"/>
+    <sheet name="release1.0.4" sheetId="4" r:id="rId2"/>
+    <sheet name="release1.0.3" sheetId="3" r:id="rId3"/>
+    <sheet name="release1.0.2" sheetId="2" r:id="rId4"/>
+    <sheet name="release1.0.1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>图形设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +527,40 @@
       <t xml:space="preserve">
 1、增加xss防护。
 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2023年01月08日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1、全面升级JDK17+SpringBoot3.0.0+SpringSecurity6.0.0
+2、集成spring-security-oauth2-authorization-server1.0.0，支持Oauth2.0
+3、删除自定义网关代理，改由SpringCloudGateway支持
+4、自定义Oauth2.0密码模式，支持前后端分离模式下自定义登录页
+5、集成图形验证码，更换登录页
+6、集成Jenkins+Rancher流水线部署
+7、集成配置加密插件，保护开源项目的部分配置信息
+8、更新帮助文档及系统手册</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1019,7 +1054,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1191,7 +1226,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1352,6 +1387,178 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -1625,7 +1832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>

--- a/帮助文档/版本记录.xlsx
+++ b/帮助文档/版本记录.xlsx
@@ -485,6 +485,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>2022年09月23日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1、增加xss防护。
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2022年07月21日</t>
     </r>
     <r>
@@ -513,7 +541,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2022年09月23日</t>
+      <t>2023年01月08日</t>
     </r>
     <r>
       <rPr>
@@ -525,35 +553,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1、增加xss防护。
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2023年01月08日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1、全面升级JDK17+SpringBoot3.0.0+SpringSecurity6.0.0
+1、全面升级JDK17+SpringBoot3.0.0+SpringSecurity6.0.0                     
 2、集成spring-security-oauth2-authorization-server1.0.0，支持Oauth2.0
 3、删除自定义网关代理，改由SpringCloudGateway支持
 4、自定义Oauth2.0密码模式，支持前后端分离模式下自定义登录页
@@ -1226,7 +1226,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1391,14 +1391,14 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>

--- a/帮助文档/版本记录.xlsx
+++ b/帮助文档/版本记录.xlsx
@@ -7,18 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="release2.0.1" sheetId="5" r:id="rId1"/>
-    <sheet name="release1.0.4" sheetId="4" r:id="rId2"/>
-    <sheet name="release1.0.3" sheetId="3" r:id="rId3"/>
-    <sheet name="release1.0.2" sheetId="2" r:id="rId4"/>
-    <sheet name="release1.0.1" sheetId="1" r:id="rId5"/>
+    <sheet name="v2" sheetId="5" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>图形设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,14 +82,6 @@
   </si>
   <si>
     <t>定时任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关代理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,18 +617,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -688,11 +671,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -708,25 +688,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -736,7 +707,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1053,156 +1024,156 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1216,373 +1187,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H15"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H15"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>24</v>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -1593,9 +1222,9 @@
       <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="13"/>
@@ -1608,11 +1237,11 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="13"/>
@@ -1625,13 +1254,13 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="13"/>
@@ -1644,9 +1273,9 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="13"/>
@@ -1659,9 +1288,9 @@
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="13"/>
@@ -1674,9 +1303,9 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="13"/>
@@ -1689,11 +1318,11 @@
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
@@ -1706,9 +1335,9 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="13"/>
@@ -1721,9 +1350,9 @@
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="13"/>
@@ -1736,8 +1365,8 @@
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1752,14 +1381,12 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1770,10 +1397,10 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="14"/>
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="14"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1785,10 +1412,10 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="14"/>
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="14"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -1799,12 +1426,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1814,347 +1436,507 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="4:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D1:K15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="D23:K37"/>
+    <mergeCell ref="L23:S37"/>
+    <mergeCell ref="D38:K52"/>
     <mergeCell ref="D1:K22"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
